--- a/10/Encuesta de Operadores Financieros (EOF) 2021 - Diaria.xlsx
+++ b/10/Encuesta de Operadores Financieros (EOF) 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -647,6 +647,75 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>14-08-2021</t>
+  </si>
+  <si>
+    <t>15-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>22-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2453,6 +2522,163 @@
         <v>760</v>
       </c>
     </row>
+    <row r="196" spans="1:15">
+      <c r="A196" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="A198" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="A206" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
+      <c r="A207" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="A208" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" t="s">
+        <v>233</v>
+      </c>
+      <c r="B218">
+        <v>0.35</v>
+      </c>
+      <c r="C218">
+        <v>0.6</v>
+      </c>
+      <c r="D218">
+        <v>0.5</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+      <c r="F218">
+        <v>3.5</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>1.5</v>
+      </c>
+      <c r="I218">
+        <v>1.75</v>
+      </c>
+      <c r="J218">
+        <v>2</v>
+      </c>
+      <c r="K218">
+        <v>2.25</v>
+      </c>
+      <c r="L218">
+        <v>2.5</v>
+      </c>
+      <c r="M218">
+        <v>3.5</v>
+      </c>
+      <c r="N218">
+        <v>780</v>
+      </c>
+      <c r="O218">
+        <v>780</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/Encuesta de Operadores Financieros (EOF) 2021 - Diaria.xlsx
+++ b/10/Encuesta de Operadores Financieros (EOF) 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,81 @@
   </si>
   <si>
     <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>29-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>04-09-2021</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>12-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>18-09-2021</t>
+  </si>
+  <si>
+    <t>19-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q218"/>
+  <dimension ref="A1:Q243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2679,6 +2754,173 @@
         <v>780</v>
       </c>
     </row>
+    <row r="219" spans="1:15">
+      <c r="A219" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
+      <c r="A243" t="s">
+        <v>258</v>
+      </c>
+      <c r="B243">
+        <v>0.8</v>
+      </c>
+      <c r="C243">
+        <v>0.6</v>
+      </c>
+      <c r="D243">
+        <v>0.3</v>
+      </c>
+      <c r="E243">
+        <v>4.4</v>
+      </c>
+      <c r="F243">
+        <v>3.5</v>
+      </c>
+      <c r="G243">
+        <v>2.25</v>
+      </c>
+      <c r="H243">
+        <v>2.75</v>
+      </c>
+      <c r="I243">
+        <v>3</v>
+      </c>
+      <c r="J243">
+        <v>3.5</v>
+      </c>
+      <c r="K243">
+        <v>3.75</v>
+      </c>
+      <c r="L243">
+        <v>4</v>
+      </c>
+      <c r="M243">
+        <v>4</v>
+      </c>
+      <c r="N243">
+        <v>780</v>
+      </c>
+      <c r="O243">
+        <v>785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
